--- a/sql-example.xlsx
+++ b/sql-example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -61,7 +61,10 @@
     <t>Kemal</t>
   </si>
   <si>
-    <t>GROUP BY,  ORDER BY,  LIMIT,  LENGTH,                                             ALTER TABLE tablename ADD varName varType                                  UPDATE tableName SET varName = varValue</t>
+    <t xml:space="preserve">GROUP BY,  ORDER BY,  LIMIT,  LENGTH,                                             ALTER TABLE tablename ADD varName varType                                  UPDATE tableName SET varName = varValue </t>
+  </si>
+  <si>
+    <t>zas</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
   <dimension ref="C1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,6 +735,11 @@
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
     </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="I13" s="1"/>
     </row>

--- a/sql-example.xlsx
+++ b/sql-example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">GROUP BY,  ORDER BY,  LIMIT,  LENGTH,                                             ALTER TABLE tablename ADD varName varType                                  UPDATE tableName SET varName = varValue </t>
-  </si>
-  <si>
-    <t>zas</t>
   </si>
 </sst>
 </file>
@@ -506,7 +503,7 @@
   <dimension ref="C1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,11 +732,6 @@
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="O12" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="I13" s="1"/>
     </row>
